--- a/data/excel/tutorial_home.xlsx
+++ b/data/excel/tutorial_home.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASHMI\DroidBiz\v3\DroidBizNextjs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225F69F4-9A4A-4676-8E57-5C9DFD838133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C36F5-BEBB-46B6-A36D-3C0021ACCD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>kotlin</t>
+  </si>
+  <si>
+    <t>kotlin-new</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,12 +612,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>

--- a/data/excel/tutorial_home.xlsx
+++ b/data/excel/tutorial_home.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASHMI\DroidBiz\v3\DroidBizNextjs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422C36F5-BEBB-46B6-A36D-3C0021ACCD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017375DF-1792-4108-BE9E-61739A897EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>kotlin</t>
-  </si>
-  <si>
-    <t>kotlin-new</t>
   </si>
 </sst>
 </file>
@@ -538,7 +535,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,24 +609,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>

--- a/data/excel/tutorial_home.xlsx
+++ b/data/excel/tutorial_home.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASHMI\DroidBiz\v3\DroidBizNextjs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017375DF-1792-4108-BE9E-61739A897EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D185A1-12A4-4017-B9A4-5865E79A1BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>kotlin</t>
+  </si>
+  <si>
+    <t>kotlin-new</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,12 +612,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>

--- a/data/excel/tutorial_home.xlsx
+++ b/data/excel/tutorial_home.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASHMI\DroidBiz\v3\DroidBizNextjs\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D185A1-12A4-4017-B9A4-5865E79A1BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9D750-10AC-4C5F-99E0-81A9E18D8430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>kotlin</t>
-  </si>
-  <si>
-    <t>kotlin-new</t>
   </si>
 </sst>
 </file>
@@ -538,7 +535,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,24 +609,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
